--- a/9_parity.xlsx
+++ b/9_parity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jannes/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jannes/Desktop/mlfin_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4D3F1C-BF4A-664A-B4A3-0CD004384C1D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC20BC9A-A358-804E-9CDF-7F78D652BE21}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{AD2625DF-FCED-6942-BE46-4BA087E67355}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet2!$C$1</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet2!$Z$29</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">Sheet2!$AJ$29</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
@@ -31,13 +31,13 @@
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet2!$T$1</definedName>
-    <definedName name="solver_pre" localSheetId="1" hidden="1">0.1</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.999</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Sheet2!$L$1</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Sheet2!$AH$29</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">Sheet2!$AB$30</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
@@ -173,9 +173,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="12"/>
@@ -190,6 +187,9 @@
           <color indexed="12"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -468,16 +468,16 @@
                   <c:v>9.8843272078350406</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>11.053853349270817</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>11.004217137307796</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>12.342239141497043</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>10.226069506823322</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -807,16 +807,16 @@
                   <c:v>9.4859989932662785</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>7.3377428044207216</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>7.0475903067222134</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>7.4526851615451069</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>7.4230251432703929</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -1146,16 +1146,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>11.053853349270817</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>11.004217137307796</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12.342239141497043</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>10.226069506823322</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>10.476720643011898</c:v>
@@ -1485,16 +1485,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.3377428044207216</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.0475903067222134</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.4526851615451069</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.4230251432703929</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>7.609966269425291</c:v>
@@ -2105,49 +2105,49 @@
                   <c:v>8.1740923015713705</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>9.296314308587327</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>10.628717380656038</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>8.7299935284610903</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>10.20194086555499</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>11.626595524809733</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>10.105656419745518</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>11.382211195154746</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>11.513978689707489</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>12.442787758809175</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>12.194856495239639</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>12.913275504202112</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>12.42404074082161</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>10.793331437561935</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>13.021308510434507</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>11.583056917213357</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0</c:v>
@@ -2444,49 +2444,49 @@
                   <c:v>8.414672966867192</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>8.060102618369962</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>6.7984245169576196</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>7.38038021258272</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>6.4837707919914145</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>7.1468052953059429</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>5.3711859724272646</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>5.6401617712749035</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>6.2686322252713795</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>6.082514843561821</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>5.6381221334291984</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>3.3961154492094168</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>4.8829680126891368</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>3.6217880596257617</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>2.9492039826922509</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>4.6020146177217827</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0</c:v>
@@ -2783,49 +2783,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.296314308587327</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>10.628717380656038</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.7299935284610903</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10.20194086555499</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>11.626595524809733</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>10.105656419745518</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11.382211195154746</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>11.513978689707489</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>12.442787758809175</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>12.194856495239639</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12.913275504202112</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>12.42404074082161</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10.793331437561935</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>13.021308510434507</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>11.583056917213357</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>11.712980521925267</c:v>
@@ -3122,49 +3122,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.060102618369962</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.7984245169576196</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.38038021258272</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.4837707919914145</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.1468052953059429</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.3711859724272646</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.6401617712749035</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.2686322252713795</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.082514843561821</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.6381221334291984</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.3961154492094168</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.8829680126891368</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.6217880596257617</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.9492039826922509</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.6020146177217827</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>4.2773223258990649</c:v>
@@ -4662,10 +4662,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77AB5289-D563-AA42-8E85-AF1D6DA1B41B}" name="Table1" displayName="Table1" ref="A1:C101" totalsRowShown="0" tableBorderDxfId="5">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1F94AA97-D650-A64B-9932-452AF0300AE3}" name=" "/>
-    <tableColumn id="2" xr3:uid="{8EAB57AB-BE4D-2745-BB11-6F539CC83991}" name="Repay" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{8EAB57AB-BE4D-2745-BB11-6F539CC83991}" name="Repay" dataDxfId="4">
       <calculatedColumnFormula>(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0E5F8C55-A7FD-FC40-B810-E6F4B3AEC4DE}" name="Default" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{0E5F8C55-A7FD-FC40-B810-E6F4B3AEC4DE}" name="Default" dataDxfId="3">
       <calculatedColumnFormula>(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4674,13 +4674,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A04B7B7-B07A-B344-97F9-89E39C5139CF}" name="Table13" displayName="Table13" ref="G1:I101" totalsRowShown="0" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A04B7B7-B07A-B344-97F9-89E39C5139CF}" name="Table13" displayName="Table13" ref="G1:I101" totalsRowShown="0" tableBorderDxfId="2">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{33C5C0D6-C682-3C44-9152-1DF999ADA7ED}" name=" "/>
-    <tableColumn id="2" xr3:uid="{21805A8C-C9E9-6D48-BBF7-96BF8A03014D}" name="Repay" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{21805A8C-C9E9-6D48-BBF7-96BF8A03014D}" name="Repay" dataDxfId="1">
       <calculatedColumnFormula>(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E1AE57F5-2144-E84D-A9CD-92EFF642297F}" name="Default" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{E1AE57F5-2144-E84D-A9CD-92EFF642297F}" name="Default" dataDxfId="0">
       <calculatedColumnFormula>(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5019,22 +5019,22 @@
       </c>
       <c r="B2" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>0.93111978069551349</v>
+        <v>2.0287985269704394</v>
       </c>
       <c r="C2" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.0227348123316089</v>
+        <v>5.9522106793284282</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="H2" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.2980261122270123</v>
+        <v>3.1318609273221893</v>
       </c>
       <c r="I2" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.5083266251550471</v>
+        <v>1.403132956221262</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5044,11 +5044,11 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.5171719415364948</v>
+        <v>0.89404678049024977</v>
       </c>
       <c r="C3" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.8893748713345473</v>
+        <v>4.4079297764893424</v>
       </c>
       <c r="G3" s="1">
         <f>G2+1</f>
@@ -5056,11 +5056,11 @@
       </c>
       <c r="H3" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.511569685128838</v>
+        <v>2.7988756960104015</v>
       </c>
       <c r="I3" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.5154930719353779</v>
+        <v>1.0007058394488861</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5070,11 +5070,11 @@
       </c>
       <c r="B4" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.6651148818712125</v>
+        <v>1.4845314625900381</v>
       </c>
       <c r="C4" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.1333568714618307</v>
+        <v>5.3840430529695196</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ref="G4:G67" si="1">G3+1</f>
@@ -5082,11 +5082,11 @@
       </c>
       <c r="H4" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.5254450627929561</v>
+        <v>3.3997844043238343</v>
       </c>
       <c r="I4" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.8016479429932615</v>
+        <v>1.6354717600325896</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -5096,11 +5096,11 @@
       </c>
       <c r="B5" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.9828196151072692</v>
+        <v>2.7406055069991071</v>
       </c>
       <c r="C5" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.3045147032048909</v>
+        <v>5.9588412381084428</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
@@ -5108,11 +5108,11 @@
       </c>
       <c r="H5" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.0287238613525642</v>
+        <v>3.0550917947302079</v>
       </c>
       <c r="I5" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>0.80242641700179163</v>
+        <v>1.672248165273464</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -5122,11 +5122,11 @@
       </c>
       <c r="B6" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>0.84231382622784656</v>
+        <v>2.1494498511075872</v>
       </c>
       <c r="C6" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.1755193008166787</v>
+        <v>4.85565087614685</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
@@ -5134,11 +5134,11 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.7644344087675754</v>
+        <v>2.5780721667162161</v>
       </c>
       <c r="I6" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.3582798140745429</v>
+        <v>1.6949884303981957</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -5148,11 +5148,11 @@
       </c>
       <c r="B7" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.4315367380817423</v>
+        <v>1.8811805072121182</v>
       </c>
       <c r="C7" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.3321470973376748</v>
+        <v>6.2643028012720015</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
@@ -5160,11 +5160,11 @@
       </c>
       <c r="H7" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.8826226935160895</v>
+        <v>3.0985299776965296</v>
       </c>
       <c r="I7" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>0.54858811217689629</v>
+        <v>1.8145278366812729</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -5174,11 +5174,11 @@
       </c>
       <c r="B8" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.2358350413062884</v>
+        <v>2.6685253731294871</v>
       </c>
       <c r="C8" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.5635713431366485</v>
+        <v>5.7636831458699271</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
@@ -5186,11 +5186,11 @@
       </c>
       <c r="H8" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.0767254550222298</v>
+        <v>2.3088844362572485</v>
       </c>
       <c r="I8" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.9403449302186038</v>
+        <v>1.3132039308262724</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -5200,11 +5200,11 @@
       </c>
       <c r="B9" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.1438174513458714</v>
+        <v>2.2271686900690217</v>
       </c>
       <c r="C9" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.6809279532386423</v>
+        <v>7.0385185546412954</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
@@ -5212,11 +5212,11 @@
       </c>
       <c r="H9" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.9959162395263643</v>
+        <v>2.6389369808538934</v>
       </c>
       <c r="I9" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>0.37585153602195431</v>
+        <v>0.84631153441032547</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -5226,11 +5226,11 @@
       </c>
       <c r="B10" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.582844144697634</v>
+        <v>3.4744407047434112</v>
       </c>
       <c r="C10" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.3039942137600837</v>
+        <v>7.8015468968620558</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
@@ -5238,11 +5238,11 @@
       </c>
       <c r="H10" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.0551307745399483</v>
+        <v>2.7499035648635637</v>
       </c>
       <c r="I10" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.2070637791930456</v>
+        <v>2.7403069661368931</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -5252,11 +5252,11 @@
       </c>
       <c r="B11" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.8441104965574666</v>
+        <v>1.8628641099817147</v>
       </c>
       <c r="C11" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.2811131817444092</v>
+        <v>7.2584056918652609</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="1"/>
@@ -5264,11 +5264,11 @@
       </c>
       <c r="H11" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.658161927806677</v>
+        <v>4.06675010573466</v>
       </c>
       <c r="I11" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.7650955618544146</v>
+        <v>2.273276038597845</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -5278,11 +5278,11 @@
       </c>
       <c r="B12" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.7662570427310302</v>
+        <v>2.0561976786142449</v>
       </c>
       <c r="C12" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.2278610010971729</v>
+        <v>7.8482276178247421</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="1"/>
@@ -5290,11 +5290,11 @@
       </c>
       <c r="H12" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.9940829402395881</v>
+        <v>2.8629144664033532</v>
       </c>
       <c r="I12" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>0.62674880392987853</v>
+        <v>2.8505521989229026</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -5304,11 +5304,11 @@
       </c>
       <c r="B13" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.5574515925539725</v>
+        <v>3.3337290119634884</v>
       </c>
       <c r="C13" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.646866418698842</v>
+        <v>9.0587725148901903</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
@@ -5316,11 +5316,11 @@
       </c>
       <c r="H13" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.3897657385476294</v>
+        <v>4.6766119848256382</v>
       </c>
       <c r="I13" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.0033197707848651</v>
+        <v>2.220416240989135</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -5330,11 +5330,11 @@
       </c>
       <c r="B14" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.9158893900022853</v>
+        <v>1.9311455132785134</v>
       </c>
       <c r="C14" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.5460466322388324</v>
+        <v>9.2921037998380651</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
@@ -5342,11 +5342,11 @@
       </c>
       <c r="H14" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.4013334138432239</v>
+        <v>3.2725920234881438</v>
       </c>
       <c r="I14" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.5743246910963338</v>
+        <v>1.6070824451621768</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -5356,11 +5356,11 @@
       </c>
       <c r="B15" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.1930745771097815</v>
+        <v>3.1486722196957126</v>
       </c>
       <c r="C15" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.4454541863785924</v>
+        <v>7.6988389242292428</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
@@ -5368,11 +5368,11 @@
       </c>
       <c r="H15" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.3076370808005366</v>
+        <v>4.4711041361774644</v>
       </c>
       <c r="I15" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.4454365321000096</v>
+        <v>1.8116767619374772</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -5382,11 +5382,11 @@
       </c>
       <c r="B16" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.4158852970283209</v>
+        <v>3.3839075609679297</v>
       </c>
       <c r="C16" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.7330174440876895</v>
+        <v>9.2461002227607931</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
@@ -5394,11 +5394,11 @@
       </c>
       <c r="H16" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.549657640501656</v>
+        <v>4.1575547145465297</v>
       </c>
       <c r="I16" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.2256691366772023</v>
+        <v>2.8996203016288584</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -5408,11 +5408,11 @@
       </c>
       <c r="B17" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.2401881131766381</v>
+        <v>2.3582115925672658</v>
       </c>
       <c r="C17" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.6760011918671101</v>
+        <v>10.282974831916864</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="1"/>
@@ -5420,11 +5420,11 @@
       </c>
       <c r="H17" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.3925002485636391</v>
+        <v>3.7142002256037938</v>
       </c>
       <c r="I17" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.0187703370031516</v>
+        <v>2.0927796438556894</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -5434,11 +5434,11 @@
       </c>
       <c r="B18" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.8102688186547979</v>
+        <v>3.6923831195877965</v>
       </c>
       <c r="C18" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.4015082315951055</v>
+        <v>8.3578341593485899</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="1"/>
@@ -5446,11 +5446,11 @@
       </c>
       <c r="H18" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.7230213690669389</v>
+        <v>5.5338619781275291</v>
       </c>
       <c r="I18" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.2778214468193068</v>
+        <v>1.5655724741315373</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -5460,11 +5460,11 @@
       </c>
       <c r="B19" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.016888758933459</v>
+        <v>4.8994014482395585</v>
       </c>
       <c r="C19" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.6248581768397372</v>
+        <v>9.8108734207989041</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="1"/>
@@ -5472,11 +5472,11 @@
       </c>
       <c r="H19" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.7705956010764448</v>
+        <v>5.0484211408233719</v>
       </c>
       <c r="I19" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.1155120072696891</v>
+        <v>1.141287459681019</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -5486,11 +5486,11 @@
       </c>
       <c r="B20" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.9549064312604649</v>
+        <v>4.5705103149458646</v>
       </c>
       <c r="C20" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.794928952550858</v>
+        <v>8.8685376170831081</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
@@ -5498,11 +5498,11 @@
       </c>
       <c r="H20" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.3519849915764519</v>
+        <v>6.6142914357198572</v>
       </c>
       <c r="I20" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.7882889104870108</v>
+        <v>2.0452148960911996</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -5512,11 +5512,11 @@
       </c>
       <c r="B21" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.5240243468310908</v>
+        <v>4.6628461038718907</v>
       </c>
       <c r="C21" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.3696516592370642</v>
+        <v>10.881259181595679</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
@@ -5524,11 +5524,11 @@
       </c>
       <c r="H21" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.8237503577167367</v>
+        <v>6.250018144510002</v>
       </c>
       <c r="I21" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.6170784026246907</v>
+        <v>2.5403303694797543</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -5538,11 +5538,11 @@
       </c>
       <c r="B22" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.6805111033169875</v>
+        <v>5.4557898187714464</v>
       </c>
       <c r="C22" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.407159501408131</v>
+        <v>9.6843581128017693</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
@@ -5550,11 +5550,11 @@
       </c>
       <c r="H22" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.0062478864189215</v>
+        <v>7.2229606322194373</v>
       </c>
       <c r="I22" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.6933531616238842</v>
+        <v>2.6943760848439875</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -5564,11 +5564,11 @@
       </c>
       <c r="B23" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.0100917334373403</v>
+        <v>5.7890537858695259</v>
       </c>
       <c r="C23" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.612292992172442</v>
+        <v>10.129319808172472</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="1"/>
@@ -5576,11 +5576,11 @@
       </c>
       <c r="H23" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.5855442196826468</v>
+        <v>6.2064583562455899</v>
       </c>
       <c r="I23" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.0999988315266735</v>
+        <v>2.1106327174099002</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -5590,11 +5590,11 @@
       </c>
       <c r="B24" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.2322388042717458</v>
+        <v>4.6484569454813336</v>
       </c>
       <c r="C24" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.277302080732307</v>
+        <v>10.332392892078699</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="1"/>
@@ -5602,11 +5602,11 @@
       </c>
       <c r="H24" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.7352417825326691</v>
+        <v>6.4016739099931579</v>
       </c>
       <c r="I24" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.0436395742277749</v>
+        <v>2.6684874941708716</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -5616,11 +5616,11 @@
       </c>
       <c r="B25" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.0609470882090157</v>
+        <v>5.7607764627656977</v>
       </c>
       <c r="C25" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.018001838159631</v>
+        <v>10.963666107498401</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="1"/>
@@ -5628,11 +5628,11 @@
       </c>
       <c r="H25" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.9334457987484184</v>
+        <v>5.8214481997807539</v>
       </c>
       <c r="I25" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.8763113888924559</v>
+        <v>3.3414870906655798</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -5642,11 +5642,11 @@
       </c>
       <c r="B26" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.2136869393452647</v>
+        <v>6.474739341142846</v>
       </c>
       <c r="C26" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.810197287348968</v>
+        <v>11.492795643656565</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="1"/>
@@ -5654,11 +5654,11 @@
       </c>
       <c r="H26" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.8672304127333739</v>
+        <v>8.0942457953365192</v>
       </c>
       <c r="I26" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.5584584692607844</v>
+        <v>2.6958609238404376</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -5668,11 +5668,11 @@
       </c>
       <c r="B27" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.337472069238915</v>
+        <v>5.6637571991964721</v>
       </c>
       <c r="C27" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.968550518976501</v>
+        <v>9.8699728563518896</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="1"/>
@@ -5680,11 +5680,11 @@
       </c>
       <c r="H27" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.0956740724662239</v>
+        <v>8.0236376750466221</v>
       </c>
       <c r="I27" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.6947559316066063</v>
+        <v>4.4576307862110882</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -5694,11 +5694,11 @@
       </c>
       <c r="B28" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.0289731101391233</v>
+        <v>7.4767281465227704</v>
       </c>
       <c r="C28" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>12.01249502848529</v>
+        <v>12.29318730765233</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="1"/>
@@ -5706,11 +5706,11 @@
       </c>
       <c r="H28" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.9362282370107202</v>
+        <v>7.7240073979728265</v>
       </c>
       <c r="I28" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.1505194228294529</v>
+        <v>3.1373491755330774</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -5720,11 +5720,11 @@
       </c>
       <c r="B29" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.1594885822092742</v>
+        <v>7.2691463168406303</v>
       </c>
       <c r="C29" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.484411633014821</v>
+        <v>11.585497936054818</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="1"/>
@@ -5732,11 +5732,11 @@
       </c>
       <c r="H29" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.1295834609435644</v>
+        <v>7.1055488761498395</v>
       </c>
       <c r="I29" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.489584768297926</v>
+        <v>4.7999468669334409</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -5746,11 +5746,11 @@
       </c>
       <c r="B30" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.0072098700158794</v>
+        <v>6.0291949727290737</v>
       </c>
       <c r="C30" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.944774625987858</v>
+        <v>10.269065901140328</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="1"/>
@@ -5758,11 +5758,11 @@
       </c>
       <c r="H30" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.9414664457185289</v>
+        <v>7.684979597285543</v>
       </c>
       <c r="I30" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.3147998963970897</v>
+        <v>5.3925020077198926</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -5772,11 +5772,11 @@
       </c>
       <c r="B31" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.1850304175794468</v>
+        <v>8.4409668016778543</v>
       </c>
       <c r="C31" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.010507841180134</v>
+        <v>12.309769663705341</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="1"/>
@@ -5784,11 +5784,11 @@
       </c>
       <c r="H31" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.3225699667584294</v>
+        <v>9.3628539669651918</v>
       </c>
       <c r="I31" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.6263274367327041</v>
+        <v>3.5875271829852453</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -5798,11 +5798,11 @@
       </c>
       <c r="B32" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.4909005276340217</v>
+        <v>8.6360173891695435</v>
       </c>
       <c r="C32" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.206371964603189</v>
+        <v>10.033696184473163</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="1"/>
@@ -5810,11 +5810,11 @@
       </c>
       <c r="H32" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.2326968750890934</v>
+        <v>9.5700068922963393</v>
       </c>
       <c r="I32" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.1272379586982098</v>
+        <v>3.9666730792342118</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -5824,11 +5824,11 @@
       </c>
       <c r="B33" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.2315590935652772</v>
+        <v>6.9691322957490112</v>
       </c>
       <c r="C33" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>12.265191494346643</v>
+        <v>11.440909118724907</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="1"/>
@@ -5836,11 +5836,11 @@
       </c>
       <c r="H33" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.9626341236530962</v>
+        <v>8.075929090714979</v>
       </c>
       <c r="I33" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.0120851187843662</v>
+        <v>4.0509696105711841</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -5850,11 +5850,11 @@
       </c>
       <c r="B34" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.418132786860455</v>
+        <v>9.358851732008846</v>
       </c>
       <c r="C34" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.064878003420135</v>
+        <v>11.374429377497586</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="1"/>
@@ -5862,11 +5862,11 @@
       </c>
       <c r="H34" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.8678983550992818</v>
+        <v>10.001951607704171</v>
       </c>
       <c r="I34" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.1315571270435205</v>
+        <v>4.4162237825844812</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -5876,11 +5876,11 @@
       </c>
       <c r="B35" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.5272979475787363</v>
+        <v>8.6489011806254155</v>
       </c>
       <c r="C35" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.561249805783998</v>
+        <v>10.888558908258874</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="1"/>
@@ -5888,11 +5888,11 @@
       </c>
       <c r="H35" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.587155056216082</v>
+        <v>10.882092310959479</v>
       </c>
       <c r="I35" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.8699867465485704</v>
+        <v>6.3355981944837998</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -5902,11 +5902,11 @@
       </c>
       <c r="B36" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.0413280917554442</v>
+        <v>9.3700115165590763</v>
       </c>
       <c r="C36" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.576313841850423</v>
+        <v>11.073815092892254</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="1"/>
@@ -5914,11 +5914,11 @@
       </c>
       <c r="H36" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.2589874013054096</v>
+        <v>10.621768644031484</v>
       </c>
       <c r="I36" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.1691920613839226</v>
+        <v>6.3523441254854465</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -5928,11 +5928,11 @@
       </c>
       <c r="B37" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.7629777076901227</v>
+        <v>8.3946026149520261</v>
       </c>
       <c r="C37" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.7598407944638375</v>
+        <v>10.876293547062911</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="1"/>
@@ -5940,11 +5940,11 @@
       </c>
       <c r="H37" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.036641035240867</v>
+        <v>10.96692311842159</v>
       </c>
       <c r="I37" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.222970509208694</v>
+        <v>6.8062317483053532</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -5954,11 +5954,11 @@
       </c>
       <c r="B38" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.9596161085304349</v>
+        <v>8.5582387626068854</v>
       </c>
       <c r="C38" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.539392716795208</v>
+        <v>9.7308106774927658</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="1"/>
@@ -5966,11 +5966,11 @@
       </c>
       <c r="H38" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.58349700919274</v>
+        <v>10.067210457013269</v>
       </c>
       <c r="I38" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.7250205382001393</v>
+        <v>5.1765203707056084</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -5980,11 +5980,11 @@
       </c>
       <c r="B39" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.2359541169895</v>
+        <v>10.132704613430725</v>
       </c>
       <c r="C39" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.9681111173649608</v>
+        <v>11.189993653974412</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="1"/>
@@ -5992,11 +5992,11 @@
       </c>
       <c r="H39" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.408719569900263</v>
+        <v>9.8381690492913147</v>
       </c>
       <c r="I39" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.4541376723719539</v>
+        <v>5.7739564412360531</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -6006,11 +6006,11 @@
       </c>
       <c r="B40" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.6368976424155051</v>
+        <v>10.27750119672265</v>
       </c>
       <c r="C40" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.4857802574612915</v>
+        <v>9.0250225910872892</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="1"/>
@@ -6018,11 +6018,11 @@
       </c>
       <c r="H40" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.7223387032397817</v>
+        <v>11.873690212791207</v>
       </c>
       <c r="I40" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.2058845241248806</v>
+        <v>7.4708245371202002</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -6032,11 +6032,11 @@
       </c>
       <c r="B41" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.1414964928576605</v>
+        <v>8.8356414531384662</v>
       </c>
       <c r="C41" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.912834711424063</v>
+        <v>9.5167124429154768</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="1"/>
@@ -6044,11 +6044,11 @@
       </c>
       <c r="H41" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.355006916220718</v>
+        <v>10.648077731850927</v>
       </c>
       <c r="I41" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.5865899919655284</v>
+        <v>7.9158572872551032</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -6058,11 +6058,11 @@
       </c>
       <c r="B42" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.4101528499634508</v>
+        <v>10.397776479927654</v>
       </c>
       <c r="C42" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.9701964810505839</v>
+        <v>8.6953036950593496</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="1"/>
@@ -6070,11 +6070,11 @@
       </c>
       <c r="H42" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.69167760914128</v>
+        <v>12.07687023807677</v>
       </c>
       <c r="I42" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.0051976064152086</v>
+        <v>8.6282803377021917</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -6084,11 +6084,11 @@
       </c>
       <c r="B43" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.737594084462371</v>
+        <v>9.6269085231113998</v>
       </c>
       <c r="C43" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.858226492469413</v>
+        <v>10.186774977955302</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="1"/>
@@ -6096,11 +6096,11 @@
       </c>
       <c r="H43" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>12.342504802379418</v>
+        <v>11.861958332746548</v>
       </c>
       <c r="I43" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.985804443384664</v>
+        <v>7.6554459727093631</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -6110,11 +6110,11 @@
       </c>
       <c r="B44" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.133819098625494</v>
+        <v>9.6686381535961203</v>
       </c>
       <c r="C44" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.415046114206211</v>
+        <v>8.8665342881378866</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="1"/>
@@ -6122,11 +6122,11 @@
       </c>
       <c r="H44" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.73028996026118</v>
+        <v>10.609385415625118</v>
       </c>
       <c r="I44" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.3525956952396783</v>
+        <v>8.9485276398751541</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -6136,11 +6136,11 @@
       </c>
       <c r="B45" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.220331316178216</v>
+        <v>9.896462927837268</v>
       </c>
       <c r="C45" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.551786766000685</v>
+        <v>9.3576122990440993</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="1"/>
@@ -6148,11 +6148,11 @@
       </c>
       <c r="H45" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.434835728229304</v>
+        <v>11.231625905870274</v>
       </c>
       <c r="I45" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.4767868086291909</v>
+        <v>7.2571007817222704</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -6162,11 +6162,11 @@
       </c>
       <c r="B46" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>12.0942369793651</v>
+        <v>11.471286443243029</v>
       </c>
       <c r="C46" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.296747920031633</v>
+        <v>8.0650081277216472</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="1"/>
@@ -6174,11 +6174,11 @@
       </c>
       <c r="H46" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.445439532560085</v>
+        <v>10.95771997343827</v>
       </c>
       <c r="I46" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.823535515252436</v>
+        <v>9.1870454941855986</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -6188,11 +6188,11 @@
       </c>
       <c r="B47" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.56350059244752</v>
+        <v>10.676802159543062</v>
       </c>
       <c r="C47" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.0386854163403072</v>
+        <v>8.2705959508266993</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="1"/>
@@ -6200,11 +6200,11 @@
       </c>
       <c r="H47" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.574984370032309</v>
+        <v>12.303272015718651</v>
       </c>
       <c r="I47" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.032095738828334</v>
+        <v>8.521577445241773</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -6214,11 +6214,11 @@
       </c>
       <c r="B48" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.952955455239561</v>
+        <v>11.904830441585885</v>
       </c>
       <c r="C48" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.9441404783605476</v>
+        <v>8.4642940354009539</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="1"/>
@@ -6226,11 +6226,11 @@
       </c>
       <c r="H48" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>12.409445726069706</v>
+        <v>10.55039055758729</v>
       </c>
       <c r="I48" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.1829665165344174</v>
+        <v>9.3144458482007018</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -6240,11 +6240,11 @@
       </c>
       <c r="B49" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.723568026481241</v>
+        <v>10.455031222093197</v>
       </c>
       <c r="C49" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.9912043754399225</v>
+        <v>7.6732566484337852</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="1"/>
@@ -6252,11 +6252,11 @@
       </c>
       <c r="H49" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.07335657052483</v>
+        <v>10.534293814933607</v>
       </c>
       <c r="I49" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.8571213445059875</v>
+        <v>10.658523423473429</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -6266,11 +6266,11 @@
       </c>
       <c r="B50" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>12.371171722046855</v>
+        <v>11.642093339581251</v>
       </c>
       <c r="C50" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.6884646862212529</v>
+        <v>8.7079751013665856</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="1"/>
@@ -6278,11 +6278,11 @@
       </c>
       <c r="H50" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.089074505478477</v>
+        <v>10.146089948608358</v>
       </c>
       <c r="I50" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.770955255762658</v>
+        <v>10.434398072684795</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -6292,11 +6292,11 @@
       </c>
       <c r="B51" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.806105298779377</v>
+        <v>10.837792978455688</v>
       </c>
       <c r="C51" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.9247114750002199</v>
+        <v>8.2419572789042768</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" si="1"/>
@@ -6304,11 +6304,11 @@
       </c>
       <c r="H51" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.538344019060565</v>
+        <v>11.432322054008875</v>
       </c>
       <c r="I51" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.110525361266804</v>
+        <v>9.5284984726831201</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -6318,11 +6318,11 @@
       </c>
       <c r="B52" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>12.398519171390445</v>
+        <v>10.681486636940901</v>
       </c>
       <c r="C52" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.6874094394063164</v>
+        <v>7.596994744405035</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="1"/>
@@ -6330,11 +6330,11 @@
       </c>
       <c r="H52" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.8166976461185449</v>
+        <v>10.690148178538262</v>
       </c>
       <c r="I52" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.745035439576979</v>
+        <v>9.5651353674368433</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -6344,11 +6344,11 @@
       </c>
       <c r="B53" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.247185122468958</v>
+        <v>10.209658412362193</v>
       </c>
       <c r="C53" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.0832397029478171</v>
+        <v>7.8242560581057132</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="1"/>
@@ -6356,11 +6356,11 @@
       </c>
       <c r="H53" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.249305437312806</v>
+        <v>11.024889635808783</v>
       </c>
       <c r="I53" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.5274656547977834</v>
+        <v>9.7830928226800093</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -6370,11 +6370,11 @@
       </c>
       <c r="B54" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.667678107419556</v>
+        <v>10.142791984258954</v>
       </c>
       <c r="C54" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.1548708471396028</v>
+        <v>5.4236083852047319</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="1"/>
@@ -6382,11 +6382,11 @@
       </c>
       <c r="H54" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.665461487193459</v>
+        <v>10.548924914767078</v>
       </c>
       <c r="I54" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.090580791465628</v>
+        <v>10.85276898651029</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -6396,11 +6396,11 @@
       </c>
       <c r="B55" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>12.073912154332202</v>
+        <v>10.740476688000721</v>
       </c>
       <c r="C55" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.1637331507605939</v>
+        <v>6.4165191413377496</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="1"/>
@@ -6408,11 +6408,11 @@
       </c>
       <c r="H55" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.2508956106375404</v>
+        <v>9.0728937663816573</v>
       </c>
       <c r="I55" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.8876125977791673</v>
+        <v>11.489644058041188</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -6422,11 +6422,11 @@
       </c>
       <c r="B56" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.139319750957501</v>
+        <v>10.117394612082188</v>
       </c>
       <c r="C56" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.4692422577453152</v>
+        <v>5.6520556224830054</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="1"/>
@@ -6434,11 +6434,11 @@
       </c>
       <c r="H56" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.199399126970308</v>
+        <v>11.175594721440213</v>
       </c>
       <c r="I56" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.486088778253814</v>
+        <v>10.134512183524897</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -6448,11 +6448,11 @@
       </c>
       <c r="B57" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.7211616888106125</v>
+        <v>10.648435210272975</v>
       </c>
       <c r="C57" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.4241886669289885</v>
+        <v>5.2278786003348836</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="1"/>
@@ -6460,11 +6460,11 @@
       </c>
       <c r="H57" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.9323701517116234</v>
+        <v>9.5739605693702998</v>
       </c>
       <c r="I57" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.460331534375202</v>
+        <v>9.8404535317039059</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -6474,11 +6474,11 @@
       </c>
       <c r="B58" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.7802704685089168</v>
+        <v>10.773767775919973</v>
       </c>
       <c r="C58" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.9985072791866525</v>
+        <v>4.1484002794458776</v>
       </c>
       <c r="G58" s="1">
         <f t="shared" si="1"/>
@@ -6486,11 +6486,11 @@
       </c>
       <c r="H58" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.7377632243847128</v>
+        <v>9.9713773719608998</v>
       </c>
       <c r="I58" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.860455357158441</v>
+        <v>10.440324181016342</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -6500,11 +6500,11 @@
       </c>
       <c r="B59" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.363837130027942</v>
+        <v>11.448388846952486</v>
       </c>
       <c r="C59" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.4112233678577786</v>
+        <v>5.6010389868447428</v>
       </c>
       <c r="G59" s="1">
         <f t="shared" si="1"/>
@@ -6512,11 +6512,11 @@
       </c>
       <c r="H59" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.064451555960115</v>
+        <v>9.7643697893746157</v>
       </c>
       <c r="I59" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.762287075625073</v>
+        <v>12.068102566664924</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -6526,11 +6526,11 @@
       </c>
       <c r="B60" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.570005262945719</v>
+        <v>10.95516214606052</v>
       </c>
       <c r="C60" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.1455670090104118</v>
+        <v>3.6509352369996289</v>
       </c>
       <c r="G60" s="1">
         <f t="shared" si="1"/>
@@ -6538,11 +6538,11 @@
       </c>
       <c r="H60" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.1179021493902699</v>
+        <v>8.6364773229903964</v>
       </c>
       <c r="I60" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.495611002492538</v>
+        <v>11.353834126050451</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -6552,11 +6552,11 @@
       </c>
       <c r="B61" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.582750679970397</v>
+        <v>10.590819655724799</v>
       </c>
       <c r="C61" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.6401444801530181</v>
+        <v>4.1501559447073291</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" si="1"/>
@@ -6564,11 +6564,11 @@
       </c>
       <c r="H61" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.9303938669708396</v>
+        <v>7.8750972532064916</v>
       </c>
       <c r="I61" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>12.468553357900465</v>
+        <v>11.09277547050592</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -6578,11 +6578,11 @@
       </c>
       <c r="B62" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.6665843450540994</v>
+        <v>10.156554322572156</v>
       </c>
       <c r="C62" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.3276209418195708</v>
+        <v>5.1386222491467768</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" si="1"/>
@@ -6590,11 +6590,11 @@
       </c>
       <c r="H62" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.9548065772995944</v>
+        <v>9.0179469607094269</v>
       </c>
       <c r="I62" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.85035723292982</v>
+        <v>11.862219348578366</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -6604,11 +6604,11 @@
       </c>
       <c r="B63" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.2656064987883706</v>
+        <v>9.2095366423809377</v>
       </c>
       <c r="C63" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.5942078536381254</v>
+        <v>4.1674374421102147</v>
       </c>
       <c r="G63" s="1">
         <f t="shared" si="1"/>
@@ -6616,11 +6616,11 @@
       </c>
       <c r="H63" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.3274654903363192</v>
+        <v>8.4747435163908218</v>
       </c>
       <c r="I63" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>12.26365479346558</v>
+        <v>10.175604107774525</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -6630,11 +6630,11 @@
       </c>
       <c r="B64" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.678519299791164</v>
+        <v>8.3195672288030096</v>
       </c>
       <c r="C64" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.3626159830273514</v>
+        <v>3.8287178525270722</v>
       </c>
       <c r="G64" s="1">
         <f t="shared" si="1"/>
@@ -6642,11 +6642,11 @@
       </c>
       <c r="H64" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.884900331357759</v>
+        <v>7.938869063361083</v>
       </c>
       <c r="I64" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.861892473141253</v>
+        <v>10.142725775113602</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -6656,11 +6656,11 @@
       </c>
       <c r="B65" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.6537152954131038</v>
+        <v>8.3323064826435012</v>
       </c>
       <c r="C65" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.2139572695988603</v>
+        <v>4.7520797946237137</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" si="1"/>
@@ -6668,11 +6668,11 @@
       </c>
       <c r="H65" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.237798473694645</v>
+        <v>8.3402683507009492</v>
       </c>
       <c r="I65" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.143429318602518</v>
+        <v>12.215495884441662</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -6682,11 +6682,11 @@
       </c>
       <c r="B66" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.6514921480227542</v>
+        <v>9.0583043299977355</v>
       </c>
       <c r="C66" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.4757405429838086</v>
+        <v>3.1752681817456536</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" si="1"/>
@@ -6694,11 +6694,11 @@
       </c>
       <c r="H66" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.053485034403459</v>
+        <v>6.4835183990855088</v>
       </c>
       <c r="I66" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.745353953100233</v>
+        <v>10.02665738303269</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -6708,11 +6708,11 @@
       </c>
       <c r="B67" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.3573426093411305</v>
+        <v>8.1546493191602831</v>
       </c>
       <c r="C67" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.7032434105404017</v>
+        <v>2.7164415133583963</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" si="1"/>
@@ -6720,11 +6720,11 @@
       </c>
       <c r="H67" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.7385328616123346</v>
+        <v>6.9047949089335452</v>
       </c>
       <c r="I67" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.9086920719737659</v>
+        <v>11.831112412187021</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -6734,11 +6734,11 @@
       </c>
       <c r="B68" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.2818720216234292</v>
+        <v>8.8083825457235285</v>
       </c>
       <c r="C68" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.2598517005491674</v>
+        <v>2.6500766843092456</v>
       </c>
       <c r="G68" s="1">
         <f t="shared" ref="G68:G101" si="3">G67+1</f>
@@ -6746,11 +6746,11 @@
       </c>
       <c r="H68" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.4868985035827871</v>
+        <v>7.6255425434586792</v>
       </c>
       <c r="I68" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.9250373937561012</v>
+        <v>9.5505309383523223</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -6760,11 +6760,11 @@
       </c>
       <c r="B69" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.0338344775316015</v>
+        <v>7.1486802337727848</v>
       </c>
       <c r="C69" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.2247628061060607</v>
+        <v>3.5926467313090691</v>
       </c>
       <c r="G69" s="1">
         <f t="shared" si="3"/>
@@ -6772,11 +6772,11 @@
       </c>
       <c r="H69" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.2170623263065865</v>
+        <v>6.5663771708410783</v>
       </c>
       <c r="I69" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.105511634376947</v>
+        <v>10.802679458716746</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -6786,11 +6786,11 @@
       </c>
       <c r="B70" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.2661187971211287</v>
+        <v>8.0482949635417107</v>
       </c>
       <c r="C70" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.6856141318466542</v>
+        <v>1.620261042511113</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" si="3"/>
@@ -6798,11 +6798,11 @@
       </c>
       <c r="H70" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.6774533084523995</v>
+        <v>6.8726448475751774</v>
       </c>
       <c r="I70" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>11.089188699151906</v>
+        <v>11.431895273855515</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -6812,11 +6812,11 @@
       </c>
       <c r="B71" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.5104775307444758</v>
+        <v>7.5488364619830852</v>
       </c>
       <c r="C71" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.6580599189159519</v>
+        <v>2.3570972337788096</v>
       </c>
       <c r="G71" s="1">
         <f t="shared" si="3"/>
@@ -6824,11 +6824,11 @@
       </c>
       <c r="H71" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.2471235055635006</v>
+        <v>6.0898836096010243</v>
       </c>
       <c r="I71" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.506827880906634</v>
+        <v>9.4942496697770498</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -6838,11 +6838,11 @@
       </c>
       <c r="B72" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>8.0567492218400822</v>
+        <v>6.4815387774369233</v>
       </c>
       <c r="C72" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.2827764034892732</v>
+        <v>3.1969004139332085</v>
       </c>
       <c r="G72" s="1">
         <f t="shared" si="3"/>
@@ -6850,11 +6850,11 @@
       </c>
       <c r="H72" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.1065853814378057</v>
+        <v>4.7952026406943107</v>
       </c>
       <c r="I72" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.23744691873017</v>
+        <v>10.412109413953635</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -6864,11 +6864,11 @@
       </c>
       <c r="B73" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.0339980040005452</v>
+        <v>7.212936883058445</v>
       </c>
       <c r="C73" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.8921966180349856</v>
+        <v>2.086797128783743</v>
       </c>
       <c r="G73" s="1">
         <f t="shared" si="3"/>
@@ -6876,11 +6876,11 @@
       </c>
       <c r="H73" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.0554719378051161</v>
+        <v>6.3948583799188219</v>
       </c>
       <c r="I73" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>10.283433191408257</v>
+        <v>10.602983356304149</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -6890,11 +6890,11 @@
       </c>
       <c r="B74" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.9468691402625966</v>
+        <v>5.8320009873987271</v>
       </c>
       <c r="C74" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.2463198221929024</v>
+        <v>1.0002785415288822</v>
       </c>
       <c r="G74" s="1">
         <f t="shared" si="3"/>
@@ -6902,11 +6902,11 @@
       </c>
       <c r="H74" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.7960794295230076</v>
+        <v>3.8004426119709684</v>
       </c>
       <c r="I74" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.7632396744606531</v>
+        <v>10.016213001538304</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -6916,11 +6916,11 @@
       </c>
       <c r="B75" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.9011655936987175</v>
+        <v>6.3366942682040301</v>
       </c>
       <c r="C75" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.1809359850491066</v>
+        <v>2.967504597444274</v>
       </c>
       <c r="G75" s="1">
         <f t="shared" si="3"/>
@@ -6928,11 +6928,11 @@
       </c>
       <c r="H75" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.4084508149082478</v>
+        <v>4.5807745579071035</v>
       </c>
       <c r="I75" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.3422528719296558</v>
+        <v>9.61561974292351</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -6942,11 +6942,11 @@
       </c>
       <c r="B76" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.1041620810639516</v>
+        <v>6.4499134752775706</v>
       </c>
       <c r="C76" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.3052189996853323</v>
+        <v>1.9685191272114326</v>
       </c>
       <c r="G76" s="1">
         <f t="shared" si="3"/>
@@ -6954,11 +6954,11 @@
       </c>
       <c r="H76" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.3999449648591966</v>
+        <v>5.5618802321567848</v>
       </c>
       <c r="I76" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>9.1473367259468716</v>
+        <v>9.3923185254966999</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -6968,11 +6968,11 @@
       </c>
       <c r="B77" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.6787279769489736</v>
+        <v>4.9371122566886916</v>
       </c>
       <c r="C77" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.6558658873276486</v>
+        <v>1.6379824994589904</v>
       </c>
       <c r="G77" s="1">
         <f t="shared" si="3"/>
@@ -6980,11 +6980,11 @@
       </c>
       <c r="H77" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.2559693024618825</v>
+        <v>4.0909302039146898</v>
       </c>
       <c r="I77" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.8471275861137535</v>
+        <v>9.4233848273967489</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -6994,11 +6994,11 @@
       </c>
       <c r="B78" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.0877000397222076</v>
+        <v>4.6734150710793108</v>
       </c>
       <c r="C78" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.1617526376884886</v>
+        <v>1.9902394953035252</v>
       </c>
       <c r="G78" s="1">
         <f t="shared" si="3"/>
@@ -7006,11 +7006,11 @@
       </c>
       <c r="H78" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.2059578174447552</v>
+        <v>4.461806913486086</v>
       </c>
       <c r="I78" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.7301309167849643</v>
+        <v>7.8797494641390013</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -7020,11 +7020,11 @@
       </c>
       <c r="B79" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.6078761934684058</v>
+        <v>4.6550901871804058</v>
       </c>
       <c r="C79" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.3483914815860034</v>
+        <v>2.9924968840794977</v>
       </c>
       <c r="G79" s="1">
         <f t="shared" si="3"/>
@@ -7032,11 +7032,11 @@
       </c>
       <c r="H79" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.6768891351921478</v>
+        <v>2.7173855310830093</v>
       </c>
       <c r="I79" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.8548713288182483</v>
+        <v>7.3723023475282643</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -7046,11 +7046,11 @@
       </c>
       <c r="B80" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.2831152276567863</v>
+        <v>3.6141156415906832</v>
       </c>
       <c r="C80" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.5295449407673289</v>
+        <v>2.8012348320763558</v>
       </c>
       <c r="G80" s="1">
         <f t="shared" si="3"/>
@@ -7058,11 +7058,11 @@
       </c>
       <c r="H80" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.8985017119224916</v>
+        <v>3.1842577579967539</v>
       </c>
       <c r="I80" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.5895586432580888</v>
+        <v>6.8886135958913277</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -7072,11 +7072,11 @@
       </c>
       <c r="B81" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.7237618714280973</v>
+        <v>4.4665819683237729</v>
       </c>
       <c r="C81" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.1216677990254664</v>
+        <v>2.861201266048417</v>
       </c>
       <c r="G81" s="1">
         <f t="shared" si="3"/>
@@ -7084,11 +7084,11 @@
       </c>
       <c r="H81" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.4764886607282222</v>
+        <v>2.5455325620608118</v>
       </c>
       <c r="I81" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.6057464481615664</v>
+        <v>7.9708108246864997</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -7098,11 +7098,11 @@
       </c>
       <c r="B82" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.3480287074151773</v>
+        <v>3.5394404093792877</v>
       </c>
       <c r="C82" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.2289694981989951</v>
+        <v>0.51929497848106743</v>
       </c>
       <c r="G82" s="1">
         <f t="shared" si="3"/>
@@ -7110,11 +7110,11 @@
       </c>
       <c r="H82" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.4671241170988045</v>
+        <v>3.7666425926924938</v>
       </c>
       <c r="I82" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.9019385391673147</v>
+        <v>6.6334458910471783</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -7124,11 +7124,11 @@
       </c>
       <c r="B83" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.1503382208002511</v>
+        <v>4.0241544509860603</v>
       </c>
       <c r="C83" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.7839691989663347</v>
+        <v>1.5943167451723768</v>
       </c>
       <c r="G83" s="1">
         <f t="shared" si="3"/>
@@ -7136,11 +7136,11 @@
       </c>
       <c r="H83" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.0281572097227931</v>
+        <v>1.8489605329056109</v>
       </c>
       <c r="I83" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.1255379831871553</v>
+        <v>6.1298102412935718</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -7150,11 +7150,11 @@
       </c>
       <c r="B84" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.3006734806837024</v>
+        <v>4.2616885757724505</v>
       </c>
       <c r="C84" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.4979969432734803</v>
+        <v>1.7131265674707181</v>
       </c>
       <c r="G84" s="1">
         <f t="shared" si="3"/>
@@ -7162,11 +7162,11 @@
       </c>
       <c r="H84" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.7143709997486294</v>
+        <v>2.5313524974884332</v>
       </c>
       <c r="I84" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.5491128812370221</v>
+        <v>6.3081558634696346</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -7176,11 +7176,11 @@
       </c>
       <c r="B85" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.2588152579671084</v>
+        <v>3.1151515127460638</v>
       </c>
       <c r="C85" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.9912086722920987</v>
+        <v>0.35163425322215786</v>
       </c>
       <c r="G85" s="1">
         <f t="shared" si="3"/>
@@ -7188,11 +7188,11 @@
       </c>
       <c r="H85" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.5419977840741299</v>
+        <v>2.1913967675853274</v>
       </c>
       <c r="I85" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>7.1833031203636919</v>
+        <v>5.0140080759110592</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -7202,11 +7202,11 @@
       </c>
       <c r="B86" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.3490990785837762</v>
+        <v>2.9900769685494644</v>
       </c>
       <c r="C86" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.3006969050673471</v>
+        <v>0.75691935885265615</v>
       </c>
       <c r="G86" s="1">
         <f t="shared" si="3"/>
@@ -7214,11 +7214,11 @@
       </c>
       <c r="H86" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.8985626071525203</v>
+        <v>2.4594951950639654</v>
       </c>
       <c r="I86" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>6.918608703615301</v>
+        <v>4.986165065446043</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -7228,11 +7228,11 @@
       </c>
       <c r="B87" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.0323752036943254</v>
+        <v>3.6263747554072991</v>
       </c>
       <c r="C87" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.3374316825315586</v>
+        <v>1.8647033342285613</v>
       </c>
       <c r="G87" s="1">
         <f t="shared" si="3"/>
@@ -7240,11 +7240,11 @@
       </c>
       <c r="H87" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.8967753221593924</v>
+        <v>2.5007932411721381</v>
       </c>
       <c r="I87" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.0212621272288045</v>
+        <v>4.6005348532446027</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -7254,11 +7254,11 @@
       </c>
       <c r="B88" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.4708322552146584</v>
+        <v>2.9529710411513461</v>
       </c>
       <c r="C88" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.8368127413321815</v>
+        <v>2.0645095928253356</v>
       </c>
       <c r="G88" s="1">
         <f t="shared" si="3"/>
@@ -7266,11 +7266,11 @@
       </c>
       <c r="H88" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.6871554404538966</v>
+        <v>2.660517852146592</v>
       </c>
       <c r="I88" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>5.1175342938746553</v>
+        <v>5.3347218718090836</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -7280,11 +7280,11 @@
       </c>
       <c r="B89" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.7055978257176561</v>
+        <v>2.4361297469234287</v>
       </c>
       <c r="C89" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.8111577197396325</v>
+        <v>2.5929591798534362</v>
       </c>
       <c r="G89" s="1">
         <f t="shared" si="3"/>
@@ -7292,11 +7292,11 @@
       </c>
       <c r="H89" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.4199158991562997</v>
+        <v>3.0785508232353163</v>
       </c>
       <c r="I89" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.1914679858892603</v>
+        <v>3.8678519843033072</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -7306,11 +7306,11 @@
       </c>
       <c r="B90" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.7234847998476828</v>
+        <v>3.6466394141709406</v>
       </c>
       <c r="C90" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>0.24070597524670634</v>
+        <v>2.6283878170825292</v>
       </c>
       <c r="G90" s="1">
         <f t="shared" si="3"/>
@@ -7318,11 +7318,11 @@
       </c>
       <c r="H90" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.1318426437687972</v>
+        <v>2.3959214156283055</v>
       </c>
       <c r="I90" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.6304740707356915</v>
+        <v>5.7253603915463147</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -7332,11 +7332,11 @@
       </c>
       <c r="B91" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.1445675478248427</v>
+        <v>2.9372308676552628</v>
       </c>
       <c r="C91" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>0.85389208930777094</v>
+        <v>1.1953089598243583</v>
       </c>
       <c r="G91" s="1">
         <f t="shared" si="3"/>
@@ -7344,11 +7344,11 @@
       </c>
       <c r="H91" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.1111773351619925</v>
+        <v>2.9594618875241299</v>
       </c>
       <c r="I91" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.5570239256589788</v>
+        <v>3.7811434438989577</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -7358,11 +7358,11 @@
       </c>
       <c r="B92" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.649918446529796</v>
+        <v>2.6829142890488882</v>
       </c>
       <c r="C92" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.0011353869095978</v>
+        <v>1.9689353206770672</v>
       </c>
       <c r="G92" s="1">
         <f t="shared" si="3"/>
@@ -7370,11 +7370,11 @@
       </c>
       <c r="H92" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.5532283810540921</v>
+        <v>1.5747414792401504</v>
       </c>
       <c r="I92" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.0041835712159877</v>
+        <v>3.2438282281843516</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -7384,11 +7384,11 @@
       </c>
       <c r="B93" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.9974209379898227</v>
+        <v>2.4980948102606702</v>
       </c>
       <c r="C93" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>0.75747731373839267</v>
+        <v>1.9323424297030782</v>
       </c>
       <c r="G93" s="1">
         <f t="shared" si="3"/>
@@ -7396,11 +7396,11 @@
       </c>
       <c r="H93" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.1276582100907038</v>
+        <v>1.5073335052265395</v>
       </c>
       <c r="I93" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.2245721568181169</v>
+        <v>4.9338844595319742</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -7410,11 +7410,11 @@
       </c>
       <c r="B94" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.335790223426613</v>
+        <v>3.1431124891385016</v>
       </c>
       <c r="C94" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.1271703072742141</v>
+        <v>1.1462548130673176</v>
       </c>
       <c r="G94" s="1">
         <f t="shared" si="3"/>
@@ -7422,11 +7422,11 @@
       </c>
       <c r="H94" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.6637815597403227</v>
+        <v>1.5219900472682604</v>
       </c>
       <c r="I94" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.6334624648976988</v>
+        <v>3.4279640094096755</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -7436,11 +7436,11 @@
       </c>
       <c r="B95" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.3418928843323736</v>
+        <v>2.6935912996914566</v>
       </c>
       <c r="C95" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.5213004937817778</v>
+        <v>1.2219338117208807</v>
       </c>
       <c r="G95" s="1">
         <f t="shared" si="3"/>
@@ -7448,11 +7448,11 @@
       </c>
       <c r="H95" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.2708945613787446</v>
+        <v>0.99648057114519073</v>
       </c>
       <c r="I95" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.3819474629705972</v>
+        <v>4.373571161197364</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -7462,11 +7462,11 @@
       </c>
       <c r="B96" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.395014721576882</v>
+        <v>2.6473693714530024</v>
       </c>
       <c r="C96" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>0.91604255295017911</v>
+        <v>1.7437548662029088</v>
       </c>
       <c r="G96" s="1">
         <f t="shared" si="3"/>
@@ -7474,11 +7474,11 @@
       </c>
       <c r="H96" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.781365272849091</v>
+        <v>1.6257143956012796</v>
       </c>
       <c r="I96" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>4.0846474928165293</v>
+        <v>3.9557755550328668</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -7488,11 +7488,11 @@
       </c>
       <c r="B97" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.3027884958829157</v>
+        <v>2.5038895916720918</v>
       </c>
       <c r="C97" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.181977132525043</v>
+        <v>1.064349765811456</v>
       </c>
       <c r="G97" s="1">
         <f t="shared" si="3"/>
@@ -7500,11 +7500,11 @@
       </c>
       <c r="H97" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.105507318978151</v>
+        <v>2.1403769294444079</v>
       </c>
       <c r="I97" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.5687584129457419</v>
+        <v>2.2044785647230642</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -7514,11 +7514,11 @@
       </c>
       <c r="B98" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.549775886630353</v>
+        <v>0.94336692160786317</v>
       </c>
       <c r="C98" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>0.50104076284998089</v>
+        <v>1.2630742134215927</v>
       </c>
       <c r="G98" s="1">
         <f t="shared" si="3"/>
@@ -7526,11 +7526,11 @@
       </c>
       <c r="H98" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.7056838373309811</v>
+        <v>1.941434589320113</v>
       </c>
       <c r="I98" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.4505696196846487</v>
+        <v>1.9253628716719051</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -7540,11 +7540,11 @@
       </c>
       <c r="B99" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.0969345875164334</v>
+        <v>1.7416392686896245</v>
       </c>
       <c r="C99" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.2227769580261243</v>
+        <v>2.1453983685252154</v>
       </c>
       <c r="G99" s="1">
         <f t="shared" si="3"/>
@@ -7552,11 +7552,11 @@
       </c>
       <c r="H99" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>0.56188203256218738</v>
+        <v>0.52780180204512062</v>
       </c>
       <c r="I99" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>3.8538567805091262</v>
+        <v>2.6932161515995361</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -7566,11 +7566,11 @@
       </c>
       <c r="B100" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>0.85026786831329004</v>
+        <v>2.0450420259261235</v>
       </c>
       <c r="C100" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>0.42350076854461483</v>
+        <v>1.2711772384294175</v>
       </c>
       <c r="G100" s="1">
         <f t="shared" si="3"/>
@@ -7578,11 +7578,11 @@
       </c>
       <c r="H100" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>0.75134540631148772</v>
+        <v>0.55068486409157569</v>
       </c>
       <c r="I100" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.2800827047320604</v>
+        <v>1.9536209795087649</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -7592,11 +7592,11 @@
       </c>
       <c r="B101" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],50,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.2879674288720802</v>
+        <v>2.0196766861593445</v>
       </c>
       <c r="C101" s="1">
         <f ca="1">(NORMDIST(Table1[[#This Row],[ ]],30,20,FALSE)+RAND()*0.005)*500</f>
-        <v>1.689183009073411</v>
+        <v>1.1843920963306487</v>
       </c>
       <c r="G101" s="1">
         <f t="shared" si="3"/>
@@ -7604,11 +7604,11 @@
       </c>
       <c r="H101" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],45,20,FALSE)+RAND()*0.005)*500</f>
-        <v>0.40716900450616783</v>
+        <v>0.39234870915562398</v>
       </c>
       <c r="I101" s="1">
         <f ca="1">(NORMDIST(Table13[[#This Row],[ ]],60,20,FALSE)+RAND()*0.005)*500</f>
-        <v>2.4866693375902855</v>
+        <v>2.8166967675704462</v>
       </c>
     </row>
   </sheetData>
@@ -7624,8 +7624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E7ECA5-31A1-0A4A-81C6-345E66DD7C70}">
   <dimension ref="A1:AK103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="AC30" sqref="AC30"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7641,14 +7641,14 @@
         <v>5</v>
       </c>
       <c r="C1">
-        <v>46.96559676238958</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1">
         <f>300*SUM(G4:G103)-700*SUM(H4:H103)</f>
-        <v>-11651.409128041909</v>
+        <v>-4556.5924773406441</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -7657,21 +7657,21 @@
         <v>5</v>
       </c>
       <c r="L1">
-        <v>47.84</v>
+        <v>62.828838298645884</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
       </c>
       <c r="O1">
         <f>300*SUM(P4:P103)-700*SUM(Q4:Q103)</f>
-        <v>47725.835871971751</v>
+        <v>56093.949641061328</v>
       </c>
       <c r="S1" t="s">
         <v>13</v>
       </c>
       <c r="T1">
         <f>F1+O1</f>
-        <v>36074.426743929842</v>
+        <v>51537.357163720684</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -7833,7 +7833,7 @@
         <v>6.335094127165271</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>IF(A6&lt;$C$1,B6,0)</f>
         <v>1.6361291712477466</v>
       </c>
       <c r="F6">
@@ -9106,52 +9106,52 @@
         <v>0</v>
       </c>
       <c r="X29" s="3">
-        <f>SUM(E4:E103)/SUM(E4:H103)</f>
-        <v>0.21968702925028946</v>
+        <f>SUM(E4:E103)/(SUM(G4:G103)+SUM(E4:E103))</f>
+        <v>0.50075568547486216</v>
       </c>
       <c r="Y29" s="3">
-        <f>SUM(F4:F103)/SUM(E4:H103)</f>
-        <v>0.34879370566730278</v>
+        <f>SUM(F4:F103)/SUM(C4:C103)</f>
+        <v>0.76438602138495848</v>
       </c>
       <c r="Z29" s="3">
-        <f>SUM(G4:G103)/SUM(E4:H103)</f>
-        <v>0.29246209285234981</v>
+        <f>SUM(G4:G103)/SUM(B4:B103)</f>
+        <v>0.49924431452513768</v>
       </c>
       <c r="AA29" s="3">
-        <f>SUM(H4:H103)/SUM(E4:H103)</f>
-        <v>0.1390571722300582</v>
+        <f>SUM(H4:H103)/SUM(C4:C103)</f>
+        <v>0.23561397861504141</v>
       </c>
       <c r="AB29" s="3">
         <f>SUM(F4:G103)/SUM(E4:H103)</f>
-        <v>0.64125579851965286</v>
+        <v>0.62859392898390642</v>
       </c>
       <c r="AC29">
         <f>Z29/(AA29+Z29)</f>
-        <v>0.67774979361929022</v>
+        <v>0.67937494777636476</v>
       </c>
       <c r="AF29" s="3">
-        <f>SUM(N4:N103)/SUM(N4:Q103)</f>
-        <v>0.13895189817639148</v>
+        <f>SUM(P4:P103)/(SUM(N4:N103)+SUM(N4:N103))</f>
+        <v>0.50050678597976261</v>
       </c>
       <c r="AG29" s="3">
-        <f>SUM(O4:O103)/SUM(N4:Q103)</f>
-        <v>0.32096180429761384</v>
+        <f>SUM(O4:O103)/SUM(L4:L103)</f>
+        <v>0.87992450194750071</v>
       </c>
       <c r="AH29" s="3">
-        <f>SUM(P4:P103)/SUM(N4:Q103)</f>
-        <v>0.41736587812260623</v>
+        <f>SUM(P4:P103)/SUM(K4:K103)</f>
+        <v>0.50025326463891295</v>
       </c>
       <c r="AI29" s="3">
-        <f>SUM(Q4:Q103)/SUM(N4:Q103)</f>
-        <v>0.12272041940338901</v>
+        <f>SUM(Q4:Q103)/SUM(L4:L103)</f>
+        <v>0.12007549805249879</v>
       </c>
       <c r="AJ29" s="3">
         <f>SUM(O4:P103)/SUM(N4:Q103)</f>
-        <v>0.73832768242022018</v>
+        <v>0.668706643483299</v>
       </c>
       <c r="AK29">
         <f>AH29/(AH29+AI29)</f>
-        <v>0.77277627674402849</v>
+        <v>0.80643248342777318</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.2">
@@ -9329,15 +9329,15 @@
       </c>
       <c r="X32" s="4">
         <f>Z29+AA29</f>
-        <v>0.43151926508240801</v>
+        <v>0.73485829314017903</v>
       </c>
       <c r="AC32" s="3">
         <f>MIN(X32,AF32)/MAX(X32,AF32)</f>
-        <v>0.79898206464243482</v>
+        <v>0.84414746146585307</v>
       </c>
       <c r="AF32" s="4">
         <f>AH29+AI29</f>
-        <v>0.54008629752599524</v>
+        <v>0.62032876269141179</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -10131,7 +10131,7 @@
         <v>7.895410065717213</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
+        <f>IF(A48&lt;$C$1,B48,0)</f>
         <v>11.170917794514152</v>
       </c>
       <c r="F48">
@@ -10183,7 +10183,7 @@
         <v>9.4859989932662785</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
+        <f>IF(A49&lt;$C$1,B49,0)</f>
         <v>9.8843272078350406</v>
       </c>
       <c r="F49">
@@ -10236,19 +10236,19 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.053853349270817</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.3377428044207216</v>
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
-        <v>11.053853349270817</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <f t="shared" si="3"/>
-        <v>7.3377428044207216</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>47</v>
@@ -10260,7 +10260,7 @@
         <v>8.414672966867192</v>
       </c>
       <c r="N50">
-        <f t="shared" si="4"/>
+        <f>IF(J50&lt;$L$1,K50,0)</f>
         <v>8.1740923015713705</v>
       </c>
       <c r="O50">
@@ -10288,19 +10288,19 @@
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.004217137307796</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.0475903067222134</v>
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
-        <v>11.004217137307796</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <f t="shared" si="3"/>
-        <v>7.0475903067222134</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>48</v>
@@ -10313,19 +10313,19 @@
       </c>
       <c r="N51">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9.296314308587327</v>
       </c>
       <c r="O51">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.060102618369962</v>
       </c>
       <c r="P51">
         <f t="shared" si="6"/>
-        <v>9.296314308587327</v>
+        <v>0</v>
       </c>
       <c r="Q51">
         <f t="shared" si="7"/>
-        <v>8.060102618369962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
@@ -10340,19 +10340,19 @@
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.342239141497043</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.4526851615451069</v>
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
-        <v>12.342239141497043</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <f t="shared" si="3"/>
-        <v>7.4526851615451069</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>49</v>
@@ -10365,19 +10365,19 @@
       </c>
       <c r="N52">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10.628717380656038</v>
       </c>
       <c r="O52">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6.7984245169576196</v>
       </c>
       <c r="P52">
         <f t="shared" si="6"/>
-        <v>10.628717380656038</v>
+        <v>0</v>
       </c>
       <c r="Q52">
         <f t="shared" si="7"/>
-        <v>6.7984245169576196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -10392,19 +10392,19 @@
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.226069506823322</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.4230251432703929</v>
       </c>
       <c r="G53">
         <f t="shared" si="2"/>
-        <v>10.226069506823322</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <f t="shared" si="3"/>
-        <v>7.4230251432703929</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>50</v>
@@ -10417,19 +10417,19 @@
       </c>
       <c r="N53">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.7299935284610903</v>
       </c>
       <c r="O53">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.38038021258272</v>
       </c>
       <c r="P53">
         <f t="shared" si="6"/>
-        <v>8.7299935284610903</v>
+        <v>0</v>
       </c>
       <c r="Q53">
         <f t="shared" si="7"/>
-        <v>7.38038021258272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -10469,19 +10469,19 @@
       </c>
       <c r="N54">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10.20194086555499</v>
       </c>
       <c r="O54">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6.4837707919914145</v>
       </c>
       <c r="P54">
         <f t="shared" si="6"/>
-        <v>10.20194086555499</v>
+        <v>0</v>
       </c>
       <c r="Q54">
         <f t="shared" si="7"/>
-        <v>6.4837707919914145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -10521,19 +10521,19 @@
       </c>
       <c r="N55">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11.626595524809733</v>
       </c>
       <c r="O55">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.1468052953059429</v>
       </c>
       <c r="P55">
         <f t="shared" si="6"/>
-        <v>11.626595524809733</v>
+        <v>0</v>
       </c>
       <c r="Q55">
         <f t="shared" si="7"/>
-        <v>7.1468052953059429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -10573,19 +10573,19 @@
       </c>
       <c r="N56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10.105656419745518</v>
       </c>
       <c r="O56">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.3711859724272646</v>
       </c>
       <c r="P56">
         <f t="shared" si="6"/>
-        <v>10.105656419745518</v>
+        <v>0</v>
       </c>
       <c r="Q56">
         <f t="shared" si="7"/>
-        <v>5.3711859724272646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -10625,19 +10625,19 @@
       </c>
       <c r="N57">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11.382211195154746</v>
       </c>
       <c r="O57">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.6401617712749035</v>
       </c>
       <c r="P57">
         <f t="shared" si="6"/>
-        <v>11.382211195154746</v>
+        <v>0</v>
       </c>
       <c r="Q57">
         <f t="shared" si="7"/>
-        <v>5.6401617712749035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -10677,19 +10677,19 @@
       </c>
       <c r="N58">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11.513978689707489</v>
       </c>
       <c r="O58">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6.2686322252713795</v>
       </c>
       <c r="P58">
         <f t="shared" si="6"/>
-        <v>11.513978689707489</v>
+        <v>0</v>
       </c>
       <c r="Q58">
         <f t="shared" si="7"/>
-        <v>6.2686322252713795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -10729,19 +10729,19 @@
       </c>
       <c r="N59">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12.442787758809175</v>
       </c>
       <c r="O59">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6.082514843561821</v>
       </c>
       <c r="P59">
         <f t="shared" si="6"/>
-        <v>12.442787758809175</v>
+        <v>0</v>
       </c>
       <c r="Q59">
         <f t="shared" si="7"/>
-        <v>6.082514843561821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -10781,19 +10781,19 @@
       </c>
       <c r="N60">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12.194856495239639</v>
       </c>
       <c r="O60">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.6381221334291984</v>
       </c>
       <c r="P60">
         <f t="shared" si="6"/>
-        <v>12.194856495239639</v>
+        <v>0</v>
       </c>
       <c r="Q60">
         <f t="shared" si="7"/>
-        <v>5.6381221334291984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -10833,19 +10833,19 @@
       </c>
       <c r="N61">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12.913275504202112</v>
       </c>
       <c r="O61">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.3961154492094168</v>
       </c>
       <c r="P61">
         <f t="shared" si="6"/>
-        <v>12.913275504202112</v>
+        <v>0</v>
       </c>
       <c r="Q61">
         <f t="shared" si="7"/>
-        <v>3.3961154492094168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
@@ -10885,19 +10885,19 @@
       </c>
       <c r="N62">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12.42404074082161</v>
       </c>
       <c r="O62">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.8829680126891368</v>
       </c>
       <c r="P62">
         <f t="shared" si="6"/>
-        <v>12.42404074082161</v>
+        <v>0</v>
       </c>
       <c r="Q62">
         <f t="shared" si="7"/>
-        <v>4.8829680126891368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -10937,19 +10937,19 @@
       </c>
       <c r="N63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10.793331437561935</v>
       </c>
       <c r="O63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.6217880596257617</v>
       </c>
       <c r="P63">
         <f t="shared" si="6"/>
-        <v>10.793331437561935</v>
+        <v>0</v>
       </c>
       <c r="Q63">
         <f t="shared" si="7"/>
-        <v>3.6217880596257617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -10989,19 +10989,19 @@
       </c>
       <c r="N64">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13.021308510434507</v>
       </c>
       <c r="O64">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.9492039826922509</v>
       </c>
       <c r="P64">
         <f t="shared" si="6"/>
-        <v>13.021308510434507</v>
+        <v>0</v>
       </c>
       <c r="Q64">
         <f t="shared" si="7"/>
-        <v>2.9492039826922509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -11041,19 +11041,19 @@
       </c>
       <c r="N65">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11.583056917213357</v>
       </c>
       <c r="O65">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.6020146177217827</v>
       </c>
       <c r="P65">
         <f t="shared" si="6"/>
-        <v>11.583056917213357</v>
+        <v>0</v>
       </c>
       <c r="Q65">
         <f t="shared" si="7"/>
-        <v>4.6020146177217827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
